--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Daddy.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - Daddy.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707E2E90-E4A4-4901-B013-33AB2C54DE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="29">
   <si>
     <t>B</t>
   </si>
@@ -69,12 +68,48 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>daddy1</t>
+  </si>
+  <si>
+    <t>daddy2</t>
+  </si>
+  <si>
+    <t>daddy3</t>
+  </si>
+  <si>
+    <t>daddy4</t>
+  </si>
+  <si>
+    <t>daddy5</t>
+  </si>
+  <si>
+    <t>daddy6</t>
+  </si>
+  <si>
+    <t>daddy7</t>
+  </si>
+  <si>
+    <t>daddy8</t>
+  </si>
+  <si>
+    <t>daddy9</t>
+  </si>
+  <si>
+    <t>daddy10</t>
+  </si>
+  <si>
+    <t>daddy11</t>
+  </si>
+  <si>
+    <t>daddy12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +281,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -292,7 +327,7 @@
         <xdr:cNvPr id="1032" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,7 +373,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -384,7 +419,7 @@
         <xdr:cNvPr id="1036" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,7 +465,7 @@
         <xdr:cNvPr id="1038" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -476,7 +511,7 @@
         <xdr:cNvPr id="1040" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -522,7 +557,7 @@
         <xdr:cNvPr id="1042" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,7 +603,7 @@
         <xdr:cNvPr id="1044" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -614,7 +649,7 @@
         <xdr:cNvPr id="1046" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -660,7 +695,7 @@
         <xdr:cNvPr id="1048" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -706,7 +741,7 @@
         <xdr:cNvPr id="1050" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -752,7 +787,7 @@
         <xdr:cNvPr id="1052" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -784,9 +819,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -824,7 +859,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -858,7 +893,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -893,10 +927,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1069,19 +1102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CE49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="BJ42" sqref="BJ42:BK44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BJ34" sqref="BJ34:BR46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="96" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1191,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1313,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1435,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1557,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1679,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1801,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1923,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2045,7 +2078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2167,7 +2200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2289,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2411,7 +2444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2533,7 +2566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2655,7 +2688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73">
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
@@ -2774,7 +2807,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73">
+      <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>18</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:83">
       <c r="B17" s="1">
         <v>0</v>
       </c>
@@ -2884,7 +2931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3009,7 +3056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3134,7 +3181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3259,7 +3306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3384,7 +3431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3509,7 +3556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83">
       <c r="A23">
         <v>5</v>
       </c>
@@ -3634,7 +3681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83">
       <c r="A24">
         <v>6</v>
       </c>
@@ -3759,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83">
       <c r="A25">
         <v>7</v>
       </c>
@@ -3884,7 +3931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83">
       <c r="A26">
         <v>8</v>
       </c>
@@ -4003,7 +4050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83">
       <c r="A27">
         <v>9</v>
       </c>
@@ -4122,7 +4169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83">
       <c r="A28">
         <v>10</v>
       </c>
@@ -4241,7 +4288,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83">
       <c r="A29">
         <v>11</v>
       </c>
@@ -4360,7 +4407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83">
       <c r="A30">
         <v>12</v>
       </c>
@@ -4479,7 +4526,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83">
+      <c r="M31" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:73">
       <c r="B33" s="1">
         <v>0</v>
       </c>
@@ -4585,7 +4646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4712,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73">
       <c r="A35">
         <v>1</v>
       </c>
@@ -4839,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73">
       <c r="A36">
         <v>2</v>
       </c>
@@ -4966,7 +5027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73">
       <c r="A37">
         <v>3</v>
       </c>
@@ -5093,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5220,7 +5281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73">
       <c r="A39">
         <v>5</v>
       </c>
@@ -5347,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73">
       <c r="A40">
         <v>6</v>
       </c>
@@ -5474,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73">
       <c r="A41">
         <v>7</v>
       </c>
@@ -5601,7 +5662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73">
       <c r="A42">
         <v>8</v>
       </c>
@@ -5728,7 +5789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73">
       <c r="A43">
         <v>9</v>
       </c>
@@ -5855,7 +5916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73">
       <c r="A44">
         <v>10</v>
       </c>
@@ -5994,7 +6055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73">
       <c r="A45">
         <v>11</v>
       </c>
@@ -6120,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73">
       <c r="A46">
         <v>12</v>
       </c>
@@ -6246,19 +6307,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73">
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
+      <c r="AG47" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73">
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
+      <c r="BA48" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU48" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:15">
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -6272,24 +6344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
